--- a/data/pca/factorExposure/factorExposure_2018-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03562938299904099</v>
+        <v>0.02920433230850173</v>
       </c>
       <c r="C2">
-        <v>0.0468872241493687</v>
+        <v>-0.0150083813106423</v>
       </c>
       <c r="D2">
-        <v>-0.01109448056671671</v>
+        <v>-0.02059734696783048</v>
       </c>
       <c r="E2">
-        <v>0.0514327020105242</v>
+        <v>0.01526499193248359</v>
       </c>
       <c r="F2">
-        <v>0.149544085118273</v>
+        <v>0.009281344929342239</v>
       </c>
       <c r="G2">
-        <v>-0.04316526060699469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08467415134330034</v>
+      </c>
+      <c r="H2">
+        <v>-0.02039003653553337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1248027076712503</v>
+        <v>0.08122012863333396</v>
       </c>
       <c r="C3">
-        <v>0.02043296725979023</v>
+        <v>0.01601795568684272</v>
       </c>
       <c r="D3">
-        <v>0.04986908634795875</v>
+        <v>-0.01929205521178563</v>
       </c>
       <c r="E3">
-        <v>0.08736608318395804</v>
+        <v>0.006161743077111458</v>
       </c>
       <c r="F3">
-        <v>0.3933699110951171</v>
+        <v>-0.04605212398570104</v>
       </c>
       <c r="G3">
-        <v>-0.1498834048363498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2651682826636431</v>
+      </c>
+      <c r="H3">
+        <v>-0.04028886727838293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05289449586006479</v>
+        <v>0.04964228808626048</v>
       </c>
       <c r="C4">
-        <v>0.01181039512207162</v>
+        <v>-0.001625260795888786</v>
       </c>
       <c r="D4">
-        <v>-0.03708068154591587</v>
+        <v>-0.03887131225745789</v>
       </c>
       <c r="E4">
-        <v>0.06366571492000275</v>
+        <v>-0.01959070129537805</v>
       </c>
       <c r="F4">
-        <v>0.08321289313033889</v>
+        <v>0.04966363490712516</v>
       </c>
       <c r="G4">
-        <v>-0.03925671979347663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05870175377255582</v>
+      </c>
+      <c r="H4">
+        <v>-0.03029445782956131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01283120289632424</v>
+        <v>0.02726647855974959</v>
       </c>
       <c r="C6">
-        <v>0.01163115286547604</v>
+        <v>-0.002504533430562776</v>
       </c>
       <c r="D6">
-        <v>0.008066168962286341</v>
+        <v>-0.0509704033938428</v>
       </c>
       <c r="E6">
-        <v>0.02127731089112056</v>
+        <v>-0.005812222371200209</v>
       </c>
       <c r="F6">
-        <v>0.01331510510354908</v>
+        <v>0.03303850995694541</v>
       </c>
       <c r="G6">
-        <v>0.005645425083227174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01827719367056825</v>
+      </c>
+      <c r="H6">
+        <v>-0.05235702989167714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02637772949644617</v>
+        <v>0.02121058292072023</v>
       </c>
       <c r="C7">
-        <v>0.03396123055910514</v>
+        <v>-0.002127074650761125</v>
       </c>
       <c r="D7">
-        <v>0.006407548403961573</v>
+        <v>-0.02183544847022477</v>
       </c>
       <c r="E7">
-        <v>0.03405323897471485</v>
+        <v>-0.03463046473128312</v>
       </c>
       <c r="F7">
-        <v>0.06202230530085141</v>
+        <v>0.01126245701916213</v>
       </c>
       <c r="G7">
-        <v>-0.05528909727059626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03932630606425094</v>
+      </c>
+      <c r="H7">
+        <v>-0.01620585853835782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01798494324762651</v>
+        <v>0.006982063606915506</v>
       </c>
       <c r="C8">
-        <v>0.001117077482654519</v>
+        <v>0.002755013899527143</v>
       </c>
       <c r="D8">
-        <v>-0.01291270863460554</v>
+        <v>-0.01143302117763345</v>
       </c>
       <c r="E8">
-        <v>0.06760742425833327</v>
+        <v>-0.01097627442373628</v>
       </c>
       <c r="F8">
-        <v>0.09407737312046993</v>
+        <v>0.02163164704511515</v>
       </c>
       <c r="G8">
-        <v>-0.05947150932452255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0598595222386893</v>
+      </c>
+      <c r="H8">
+        <v>-0.009602935792012754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04402647225808702</v>
+        <v>0.04133254086671991</v>
       </c>
       <c r="C9">
-        <v>-0.001386928403483939</v>
+        <v>0.002584435657930382</v>
       </c>
       <c r="D9">
-        <v>-0.03321442017925315</v>
+        <v>-0.03093630816102904</v>
       </c>
       <c r="E9">
-        <v>0.06740499249382716</v>
+        <v>-0.01780741072544276</v>
       </c>
       <c r="F9">
-        <v>0.0761082260905723</v>
+        <v>0.02645482109992679</v>
       </c>
       <c r="G9">
-        <v>-0.04222396989053824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06532119589980033</v>
+      </c>
+      <c r="H9">
+        <v>-0.02764507561330884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04083908524886812</v>
+        <v>0.0932011078033308</v>
       </c>
       <c r="C10">
-        <v>-0.01000319211439143</v>
+        <v>0.03087893629940665</v>
       </c>
       <c r="D10">
-        <v>-0.02157933167142138</v>
+        <v>0.1547431041288332</v>
       </c>
       <c r="E10">
-        <v>-0.1106131901454657</v>
+        <v>0.01509006280515754</v>
       </c>
       <c r="F10">
-        <v>0.06943330923427546</v>
+        <v>-0.05008973534386892</v>
       </c>
       <c r="G10">
-        <v>0.03652331051597189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0194719273068527</v>
+      </c>
+      <c r="H10">
+        <v>-0.003146975319536398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03383453229447957</v>
+        <v>0.02255996828732738</v>
       </c>
       <c r="C11">
-        <v>0.02058059978819487</v>
+        <v>0.009585984653982959</v>
       </c>
       <c r="D11">
-        <v>-0.002769726490983273</v>
+        <v>-0.03589857834165899</v>
       </c>
       <c r="E11">
-        <v>0.03613699045490815</v>
+        <v>0.00391598445130342</v>
       </c>
       <c r="F11">
-        <v>0.03627836082536697</v>
+        <v>0.01248110052180685</v>
       </c>
       <c r="G11">
-        <v>-0.01869710945505841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.0371103852638358</v>
+      </c>
+      <c r="H11">
+        <v>-0.02896818102683883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04153861244322591</v>
+        <v>0.03166380348969765</v>
       </c>
       <c r="C12">
-        <v>0.009293571354821372</v>
+        <v>0.008419490204461935</v>
       </c>
       <c r="D12">
-        <v>-0.01186532062309525</v>
+        <v>-0.03549734620417508</v>
       </c>
       <c r="E12">
-        <v>0.0447466477368525</v>
+        <v>-0.007160660731351347</v>
       </c>
       <c r="F12">
-        <v>0.01908918484462955</v>
+        <v>0.0190510675703942</v>
       </c>
       <c r="G12">
-        <v>-0.01459394301181183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01576239143709232</v>
+      </c>
+      <c r="H12">
+        <v>-0.01480143275357412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02036191524113544</v>
+        <v>0.02746082482904683</v>
       </c>
       <c r="C13">
-        <v>0.03711301848485213</v>
+        <v>-0.01251892298465075</v>
       </c>
       <c r="D13">
-        <v>-0.002289869575054578</v>
+        <v>-0.004224007942905461</v>
       </c>
       <c r="E13">
-        <v>0.01501870218777245</v>
+        <v>0.01816519817904934</v>
       </c>
       <c r="F13">
-        <v>0.09358704640385976</v>
+        <v>0.01151921098910984</v>
       </c>
       <c r="G13">
-        <v>-0.03026236130577761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0719921629702984</v>
+      </c>
+      <c r="H13">
+        <v>-0.02797924134828126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01259923748533867</v>
+        <v>0.01746950578002266</v>
       </c>
       <c r="C14">
-        <v>0.009698791478110664</v>
+        <v>0.0003164679617751229</v>
       </c>
       <c r="D14">
-        <v>-0.009869167905955744</v>
+        <v>-0.003855403820529514</v>
       </c>
       <c r="E14">
-        <v>0.03506522089178251</v>
+        <v>-0.008026478586555768</v>
       </c>
       <c r="F14">
-        <v>0.0675650615548971</v>
+        <v>0.01780087084521021</v>
       </c>
       <c r="G14">
-        <v>-0.06246436233628594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04839944650745317</v>
+      </c>
+      <c r="H14">
+        <v>0.01585347704540685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02482456031282061</v>
+        <v>0.02396415119054599</v>
       </c>
       <c r="C16">
-        <v>0.01904479367549861</v>
+        <v>0.01012804858738672</v>
       </c>
       <c r="D16">
-        <v>-0.004727736478237294</v>
+        <v>-0.03109012664280789</v>
       </c>
       <c r="E16">
-        <v>0.03336666097472036</v>
+        <v>-0.0006975002911879619</v>
       </c>
       <c r="F16">
-        <v>0.04344065346118973</v>
+        <v>0.01659243530743378</v>
       </c>
       <c r="G16">
-        <v>-0.02074398570814742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03381907027029243</v>
+      </c>
+      <c r="H16">
+        <v>-0.02278978586075183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04281349209519403</v>
+        <v>0.03568962346571124</v>
       </c>
       <c r="C19">
-        <v>0.02021066554990183</v>
+        <v>0.001946676182790611</v>
       </c>
       <c r="D19">
-        <v>-0.002173757024894533</v>
+        <v>-0.01449813661804146</v>
       </c>
       <c r="E19">
-        <v>0.04889997419384624</v>
+        <v>0.0007665147023950452</v>
       </c>
       <c r="F19">
-        <v>0.1080570477002938</v>
+        <v>0.02364977579780959</v>
       </c>
       <c r="G19">
-        <v>-0.03830958977267044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07780125218692598</v>
+      </c>
+      <c r="H19">
+        <v>-0.03992308300550712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00104127941241634</v>
+        <v>0.01041973624834977</v>
       </c>
       <c r="C20">
-        <v>0.01532008223254278</v>
+        <v>-0.006231180890984622</v>
       </c>
       <c r="D20">
-        <v>-0.01261628427585463</v>
+        <v>-0.004359635863572335</v>
       </c>
       <c r="E20">
-        <v>0.03627012026187904</v>
+        <v>-8.078754224430399e-05</v>
       </c>
       <c r="F20">
-        <v>0.06626085376365033</v>
+        <v>0.01136655915818486</v>
       </c>
       <c r="G20">
-        <v>-0.0655897369223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05405943550284979</v>
+      </c>
+      <c r="H20">
+        <v>0.00855737046548004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001609882119202417</v>
+        <v>0.02303291945588382</v>
       </c>
       <c r="C21">
-        <v>0.002832602846668173</v>
+        <v>-0.004584988159653774</v>
       </c>
       <c r="D21">
-        <v>0.00932126302593847</v>
+        <v>-0.004378176479058696</v>
       </c>
       <c r="E21">
-        <v>0.04249822639290776</v>
+        <v>-0.01165248978079352</v>
       </c>
       <c r="F21">
-        <v>0.06483245995755743</v>
+        <v>0.006650592998492892</v>
       </c>
       <c r="G21">
-        <v>-0.0251038402726042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0584936104593051</v>
+      </c>
+      <c r="H21">
+        <v>-0.01140129903472243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03182220221511241</v>
+        <v>0.02252223561777226</v>
       </c>
       <c r="C24">
-        <v>0.01850648527153209</v>
+        <v>0.004686304279761781</v>
       </c>
       <c r="D24">
-        <v>-0.01068282403136703</v>
+        <v>-0.03211101303832994</v>
       </c>
       <c r="E24">
-        <v>0.01996836051374411</v>
+        <v>-0.0008522392517408969</v>
       </c>
       <c r="F24">
-        <v>0.03839274099979956</v>
+        <v>0.01131101190645482</v>
       </c>
       <c r="G24">
-        <v>-0.01478791594772959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03080660324306744</v>
+      </c>
+      <c r="H24">
+        <v>-0.02737366003385219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03079578286682621</v>
+        <v>0.03301388857297763</v>
       </c>
       <c r="C25">
-        <v>0.01135818399679695</v>
+        <v>0.003298431520110364</v>
       </c>
       <c r="D25">
-        <v>-0.004353894398162202</v>
+        <v>-0.02939479111773862</v>
       </c>
       <c r="E25">
-        <v>0.04076321007604732</v>
+        <v>-0.001850656032006836</v>
       </c>
       <c r="F25">
-        <v>0.03496026620291556</v>
+        <v>0.01749374228648759</v>
       </c>
       <c r="G25">
-        <v>-0.002867230919428428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03592338478631099</v>
+      </c>
+      <c r="H25">
+        <v>-0.0299328140861886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02135117588641613</v>
+        <v>0.02125427715819007</v>
       </c>
       <c r="C26">
-        <v>0.03005514404960658</v>
+        <v>-0.01610813528047527</v>
       </c>
       <c r="D26">
-        <v>0.01770981775545739</v>
+        <v>-0.003419866231082493</v>
       </c>
       <c r="E26">
-        <v>0.03804266188114668</v>
+        <v>0.00718464495885915</v>
       </c>
       <c r="F26">
-        <v>0.06115207017777488</v>
+        <v>0.002350821443819261</v>
       </c>
       <c r="G26">
-        <v>-0.02807866228741338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0393483946897339</v>
+      </c>
+      <c r="H26">
+        <v>0.001357912401670392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0732788622424026</v>
+        <v>0.0295596033895982</v>
       </c>
       <c r="C27">
-        <v>0.01841761169885544</v>
+        <v>0.01231213269479239</v>
       </c>
       <c r="D27">
-        <v>-0.04940321782012995</v>
+        <v>-0.01583558305737902</v>
       </c>
       <c r="E27">
-        <v>0.05087983595888008</v>
+        <v>-0.00605769466435194</v>
       </c>
       <c r="F27">
-        <v>0.0649350838490582</v>
+        <v>0.02035151183385026</v>
       </c>
       <c r="G27">
-        <v>-0.04453071635860326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02956932025984323</v>
+      </c>
+      <c r="H27">
+        <v>0.001412918226803997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06232943565458318</v>
+        <v>0.1418359913083331</v>
       </c>
       <c r="C28">
-        <v>-0.02810294092730133</v>
+        <v>0.03373288857647711</v>
       </c>
       <c r="D28">
-        <v>-0.04557092650361705</v>
+        <v>0.2296783716516355</v>
       </c>
       <c r="E28">
-        <v>-0.168512322977267</v>
+        <v>0.01627227699182672</v>
       </c>
       <c r="F28">
-        <v>0.08942047821604279</v>
+        <v>-0.05815033471186691</v>
       </c>
       <c r="G28">
-        <v>0.008406311115102462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0062618834467243</v>
+      </c>
+      <c r="H28">
+        <v>0.01440064771257252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02052403595614483</v>
+        <v>0.02213407214691058</v>
       </c>
       <c r="C29">
-        <v>0.004568383908035341</v>
+        <v>0.002631525497894669</v>
       </c>
       <c r="D29">
-        <v>-0.0168305821806811</v>
+        <v>-0.006690718853339041</v>
       </c>
       <c r="E29">
-        <v>0.05320774982761114</v>
+        <v>-0.009681669742349408</v>
       </c>
       <c r="F29">
-        <v>0.05243599808485105</v>
+        <v>0.02139869806432491</v>
       </c>
       <c r="G29">
-        <v>-0.06018191597204363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04164429798041269</v>
+      </c>
+      <c r="H29">
+        <v>0.01643800735805694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08834686212328551</v>
+        <v>0.05541690248163409</v>
       </c>
       <c r="C30">
-        <v>0.0608718362229056</v>
+        <v>-0.0009259229743066267</v>
       </c>
       <c r="D30">
-        <v>-0.04423640703401224</v>
+        <v>-0.06641496069421106</v>
       </c>
       <c r="E30">
-        <v>0.08517624619968008</v>
+        <v>0.03463705649914143</v>
       </c>
       <c r="F30">
-        <v>0.06410809080907759</v>
+        <v>0.05685615289358176</v>
       </c>
       <c r="G30">
-        <v>-0.03633228753674999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07262614450159791</v>
+      </c>
+      <c r="H30">
+        <v>-0.03788002909316933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06407180035146913</v>
+        <v>0.0555138374582279</v>
       </c>
       <c r="C31">
-        <v>0.05086668840803467</v>
+        <v>0.01730963285812959</v>
       </c>
       <c r="D31">
-        <v>0.001227405937158778</v>
+        <v>-0.02742556135841091</v>
       </c>
       <c r="E31">
-        <v>0.03346870066562641</v>
+        <v>0.008872917300678967</v>
       </c>
       <c r="F31">
-        <v>0.0444062759663391</v>
+        <v>0.01677028069532399</v>
       </c>
       <c r="G31">
-        <v>-0.07367329210607107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02669628374384545</v>
+      </c>
+      <c r="H31">
+        <v>0.0134574382602499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01851687890380085</v>
+        <v>0.01203937998590487</v>
       </c>
       <c r="C32">
-        <v>0.01202968391811828</v>
+        <v>0.01467871823056053</v>
       </c>
       <c r="D32">
-        <v>-0.01657308089586838</v>
+        <v>-0.001013746092666605</v>
       </c>
       <c r="E32">
-        <v>0.07789774276279209</v>
+        <v>-0.01771579936955167</v>
       </c>
       <c r="F32">
-        <v>0.06508472549432022</v>
+        <v>0.0432174455450539</v>
       </c>
       <c r="G32">
-        <v>-0.04262840689031609</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06174903400078176</v>
+      </c>
+      <c r="H32">
+        <v>-0.04554935521774617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05607245837216081</v>
+        <v>0.04149642757685523</v>
       </c>
       <c r="C33">
-        <v>0.03758718873664895</v>
+        <v>0.003378790611107321</v>
       </c>
       <c r="D33">
-        <v>0.02048818185988304</v>
+        <v>-0.03109327444531617</v>
       </c>
       <c r="E33">
-        <v>0.06790886715366833</v>
+        <v>0.02270954285394724</v>
       </c>
       <c r="F33">
-        <v>0.09311342190672726</v>
+        <v>0.002461031822170378</v>
       </c>
       <c r="G33">
-        <v>-0.04380911469649085</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06484080440835943</v>
+      </c>
+      <c r="H33">
+        <v>-0.01730749541651959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03309560209681008</v>
+        <v>0.02878148566811806</v>
       </c>
       <c r="C34">
-        <v>0.01840792554229919</v>
+        <v>0.01898954405600988</v>
       </c>
       <c r="D34">
-        <v>-0.01254113518226496</v>
+        <v>-0.03157520165338625</v>
       </c>
       <c r="E34">
-        <v>0.04556232236758077</v>
+        <v>-0.005784251381946489</v>
       </c>
       <c r="F34">
-        <v>0.04678107047832501</v>
+        <v>0.01794293829152323</v>
       </c>
       <c r="G34">
-        <v>-0.01252216490720888</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.03050710247618048</v>
+      </c>
+      <c r="H34">
+        <v>-0.02491462404535597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01358725317570439</v>
+        <v>0.02260070445153976</v>
       </c>
       <c r="C36">
-        <v>0.005402776800091361</v>
+        <v>-0.00232526641385784</v>
       </c>
       <c r="D36">
-        <v>-0.009085288102581961</v>
+        <v>0.002282755091626625</v>
       </c>
       <c r="E36">
-        <v>0.02705056248471478</v>
+        <v>-0.001917540846196862</v>
       </c>
       <c r="F36">
-        <v>0.02804093272344648</v>
+        <v>0.00796915791855456</v>
       </c>
       <c r="G36">
-        <v>-0.03195153001611429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02189880496277764</v>
+      </c>
+      <c r="H36">
+        <v>0.002676031551703591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0008544594205897485</v>
+        <v>0.02159498415850806</v>
       </c>
       <c r="C38">
-        <v>-0.01769139657675805</v>
+        <v>0.01717868504841624</v>
       </c>
       <c r="D38">
-        <v>0.006144832655260765</v>
+        <v>0.0001660233336160389</v>
       </c>
       <c r="E38">
-        <v>-0.00333836869996866</v>
+        <v>-0.00488493093960427</v>
       </c>
       <c r="F38">
-        <v>0.01731969764820578</v>
+        <v>0.008966705784149664</v>
       </c>
       <c r="G38">
-        <v>0.009867616578510603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03123168745151798</v>
+      </c>
+      <c r="H38">
+        <v>-0.02201367266617306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03957531650349231</v>
+        <v>0.02269359129942203</v>
       </c>
       <c r="C39">
-        <v>0.03888923019528537</v>
+        <v>0.003049135050845625</v>
       </c>
       <c r="D39">
-        <v>-0.01311107192915125</v>
+        <v>-0.07465176301109575</v>
       </c>
       <c r="E39">
-        <v>0.04650010296891807</v>
+        <v>0.002757694497479901</v>
       </c>
       <c r="F39">
-        <v>0.05282250103022031</v>
+        <v>0.025589423072537</v>
       </c>
       <c r="G39">
-        <v>-0.01286400978112248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05884851028561907</v>
+      </c>
+      <c r="H39">
+        <v>-0.05115221279337041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0301787066707281</v>
+        <v>0.0342889127911989</v>
       </c>
       <c r="C40">
-        <v>0.06731765949053423</v>
+        <v>0.003010610279581166</v>
       </c>
       <c r="D40">
-        <v>-0.01300082557997497</v>
+        <v>-0.01855053777122117</v>
       </c>
       <c r="E40">
-        <v>0.03200681380214074</v>
+        <v>0.02224179376343288</v>
       </c>
       <c r="F40">
-        <v>0.09670165490014813</v>
+        <v>0.02618581672976526</v>
       </c>
       <c r="G40">
-        <v>-0.04034881527625759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0540512771892179</v>
+      </c>
+      <c r="H40">
+        <v>-0.04759622108431474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009790854219459896</v>
+        <v>0.01231983194903447</v>
       </c>
       <c r="C41">
-        <v>0.003561845727087074</v>
+        <v>0.0007577511993198137</v>
       </c>
       <c r="D41">
-        <v>0.002075999618634226</v>
+        <v>0.01349223722741959</v>
       </c>
       <c r="E41">
-        <v>0.01526040223905452</v>
+        <v>0.002113061021350897</v>
       </c>
       <c r="F41">
-        <v>0.01582646151068212</v>
+        <v>0.002115937407920742</v>
       </c>
       <c r="G41">
-        <v>-0.05364594043804181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01129613665664437</v>
+      </c>
+      <c r="H41">
+        <v>0.01473076558592158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3959873945375538</v>
+        <v>0.2129235209915857</v>
       </c>
       <c r="C42">
-        <v>-0.169640653450141</v>
+        <v>-0.0630944706779266</v>
       </c>
       <c r="D42">
-        <v>0.8553638573578202</v>
+        <v>-0.3958130171402405</v>
       </c>
       <c r="E42">
-        <v>-0.1170468255605429</v>
+        <v>0.1336669524151074</v>
       </c>
       <c r="F42">
-        <v>-0.1666634403048357</v>
+        <v>-0.8515408450942534</v>
       </c>
       <c r="G42">
-        <v>-0.06917782833576741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1750643939618797</v>
+      </c>
+      <c r="H42">
+        <v>0.01533688234996492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.005809185429197418</v>
+        <v>0.01167462497301784</v>
       </c>
       <c r="C43">
-        <v>0.005062674367380069</v>
+        <v>-0.001309911625732552</v>
       </c>
       <c r="D43">
-        <v>0.01340177675463683</v>
+        <v>0.01550058224268398</v>
       </c>
       <c r="E43">
-        <v>0.0184925279875481</v>
+        <v>0.007805528313526805</v>
       </c>
       <c r="F43">
-        <v>0.0287566118808875</v>
+        <v>-0.009271532897424087</v>
       </c>
       <c r="G43">
-        <v>-0.05149627873217912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01721030672813012</v>
+      </c>
+      <c r="H43">
+        <v>0.009697319983725717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02052196464013934</v>
+        <v>0.01692140045053617</v>
       </c>
       <c r="C44">
-        <v>0.02017075497040503</v>
+        <v>0.001879542957432576</v>
       </c>
       <c r="D44">
-        <v>0.0230730518343624</v>
+        <v>-0.02345447213634223</v>
       </c>
       <c r="E44">
-        <v>0.07101097915882129</v>
+        <v>0.0005821914324492245</v>
       </c>
       <c r="F44">
-        <v>0.1728464402050444</v>
+        <v>-0.008845569072780234</v>
       </c>
       <c r="G44">
-        <v>-0.1522964078168886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09007354741541802</v>
+      </c>
+      <c r="H44">
+        <v>-0.01560734164149264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01993923566959771</v>
+        <v>0.02178602751702769</v>
       </c>
       <c r="C46">
-        <v>0.01880594176462554</v>
+        <v>-0.001673728730252007</v>
       </c>
       <c r="D46">
-        <v>0.006307482196765329</v>
+        <v>-0.01333770944368188</v>
       </c>
       <c r="E46">
-        <v>0.06288978395739846</v>
+        <v>0.001197347532274017</v>
       </c>
       <c r="F46">
-        <v>0.06540308371457358</v>
+        <v>0.01914056027285101</v>
       </c>
       <c r="G46">
-        <v>-0.06069274099057863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05703764602820637</v>
+      </c>
+      <c r="H46">
+        <v>0.01329403846569752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09716579113640021</v>
+        <v>0.07643524960299664</v>
       </c>
       <c r="C47">
-        <v>0.03762611792386045</v>
+        <v>0.03374089016997923</v>
       </c>
       <c r="D47">
-        <v>-0.02386820134749606</v>
+        <v>-0.03716723798486044</v>
       </c>
       <c r="E47">
-        <v>0.03765942099059338</v>
+        <v>0.00445066171631476</v>
       </c>
       <c r="F47">
-        <v>0.005644578720147937</v>
+        <v>0.02798427599872953</v>
       </c>
       <c r="G47">
-        <v>-0.08792409072057972</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.007003892204063861</v>
+      </c>
+      <c r="H47">
+        <v>0.03051304276011192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01510753843483325</v>
+        <v>0.02287452739398552</v>
       </c>
       <c r="C48">
-        <v>0.01611789673718737</v>
+        <v>0.007880878551190584</v>
       </c>
       <c r="D48">
-        <v>0.001448022934032483</v>
+        <v>-0.003525997082411895</v>
       </c>
       <c r="E48">
-        <v>0.03513715513958288</v>
+        <v>0.002778863405003896</v>
       </c>
       <c r="F48">
-        <v>0.04441781418895108</v>
+        <v>0.01064330704861073</v>
       </c>
       <c r="G48">
-        <v>-0.01348053287701915</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.03080480618455805</v>
+      </c>
+      <c r="H48">
+        <v>-0.002143008943684968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09151486168159541</v>
+        <v>0.07267490476221142</v>
       </c>
       <c r="C50">
-        <v>0.04483671351917874</v>
+        <v>0.02984178365947206</v>
       </c>
       <c r="D50">
-        <v>-0.005229441075751497</v>
+        <v>-0.04343229340027892</v>
       </c>
       <c r="E50">
-        <v>0.05581809384261271</v>
+        <v>-0.01019236142806158</v>
       </c>
       <c r="F50">
-        <v>0.03393034562222162</v>
+        <v>0.02231961926428182</v>
       </c>
       <c r="G50">
-        <v>-0.03119132060271719</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02664883236184845</v>
+      </c>
+      <c r="H50">
+        <v>0.02473074319032427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0210994706844269</v>
+        <v>0.02216829937057098</v>
       </c>
       <c r="C51">
-        <v>0.02027103377106469</v>
+        <v>0.0007260017758286478</v>
       </c>
       <c r="D51">
-        <v>0.007492829674951714</v>
+        <v>0.009635686584547701</v>
       </c>
       <c r="E51">
-        <v>0.02311230389384113</v>
+        <v>0.00682083253261243</v>
       </c>
       <c r="F51">
-        <v>0.1443270127621667</v>
+        <v>-0.008947320110173964</v>
       </c>
       <c r="G51">
-        <v>-0.0534206099628877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07515718154784547</v>
+      </c>
+      <c r="H51">
+        <v>-0.02574944582766481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1011339085618168</v>
+        <v>0.09245018898634708</v>
       </c>
       <c r="C53">
-        <v>0.05198567367968506</v>
+        <v>0.04056756416328062</v>
       </c>
       <c r="D53">
-        <v>-0.02405228961810218</v>
+        <v>-0.07400306102010287</v>
       </c>
       <c r="E53">
-        <v>0.04714154470546577</v>
+        <v>0.001199861811667124</v>
       </c>
       <c r="F53">
-        <v>-0.05597659466757809</v>
+        <v>0.05493251129345964</v>
       </c>
       <c r="G53">
-        <v>-0.03465466762496643</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05338789123226666</v>
+      </c>
+      <c r="H53">
+        <v>0.03801289381732062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01387998536265803</v>
+        <v>0.0237376606640683</v>
       </c>
       <c r="C54">
-        <v>0.009008685710211583</v>
+        <v>0.01219291488230604</v>
       </c>
       <c r="D54">
-        <v>-0.01995739151754748</v>
+        <v>0.01857275750032263</v>
       </c>
       <c r="E54">
-        <v>0.03603028342902409</v>
+        <v>-0.004781430418672559</v>
       </c>
       <c r="F54">
-        <v>0.06456719697646733</v>
+        <v>0.01169395513990905</v>
       </c>
       <c r="G54">
-        <v>-0.07408289468756343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03824127871377827</v>
+      </c>
+      <c r="H54">
+        <v>0.01367974580095889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09947785203631504</v>
+        <v>0.07907646947412308</v>
       </c>
       <c r="C55">
-        <v>0.01510404834786624</v>
+        <v>0.03580908228276282</v>
       </c>
       <c r="D55">
-        <v>-0.02976344778261209</v>
+        <v>-0.07082648038113371</v>
       </c>
       <c r="E55">
-        <v>0.05778772409696439</v>
+        <v>-0.009626507335370852</v>
       </c>
       <c r="F55">
-        <v>-0.04453807737179558</v>
+        <v>0.04502997457343648</v>
       </c>
       <c r="G55">
-        <v>-0.06835407626935466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03023695343444827</v>
+      </c>
+      <c r="H55">
+        <v>0.04644647846209159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1438728005851163</v>
+        <v>0.128660076693433</v>
       </c>
       <c r="C56">
-        <v>0.06191872291341182</v>
+        <v>0.06261192837451179</v>
       </c>
       <c r="D56">
-        <v>-0.08426370835223965</v>
+        <v>-0.09226475855493783</v>
       </c>
       <c r="E56">
-        <v>0.05068837753622628</v>
+        <v>-0.001709338084473995</v>
       </c>
       <c r="F56">
-        <v>-0.1464400853689182</v>
+        <v>0.08694887352747155</v>
       </c>
       <c r="G56">
-        <v>0.004161632888209162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09316072790734889</v>
+      </c>
+      <c r="H56">
+        <v>0.02928570347346118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04238354146187131</v>
+        <v>0.04354660534227853</v>
       </c>
       <c r="C57">
-        <v>0.03011959056533085</v>
+        <v>-0.007310558818587191</v>
       </c>
       <c r="D57">
-        <v>0.0105121074228881</v>
+        <v>-0.02263775774583231</v>
       </c>
       <c r="E57">
-        <v>0.005470279738584044</v>
+        <v>0.01176180850041668</v>
       </c>
       <c r="F57">
-        <v>0.07514869458523958</v>
+        <v>0.0135983775973955</v>
       </c>
       <c r="G57">
-        <v>-0.03661442511940652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06349084381607502</v>
+      </c>
+      <c r="H57">
+        <v>-0.01381655307099917</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1973102875190906</v>
+        <v>0.1470092375813595</v>
       </c>
       <c r="C58">
-        <v>0.1132126372041425</v>
+        <v>0.04935963796076191</v>
       </c>
       <c r="D58">
-        <v>0.0362819867674593</v>
+        <v>-0.1322122673688602</v>
       </c>
       <c r="E58">
-        <v>0.2280560310308104</v>
+        <v>0.1132583047896024</v>
       </c>
       <c r="F58">
-        <v>0.2570309114357692</v>
+        <v>-0.02984835561047418</v>
       </c>
       <c r="G58">
-        <v>0.03869095705054817</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6851183711078171</v>
+      </c>
+      <c r="H58">
+        <v>0.5314611813607459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05926616480249213</v>
+        <v>0.1457283722132949</v>
       </c>
       <c r="C59">
-        <v>-0.004391417836849009</v>
+        <v>0.04089844172208196</v>
       </c>
       <c r="D59">
-        <v>-0.06015874718983059</v>
+        <v>0.2245284642279522</v>
       </c>
       <c r="E59">
-        <v>-0.1341228558811889</v>
+        <v>0.03432886517971206</v>
       </c>
       <c r="F59">
-        <v>0.09323606198197285</v>
+        <v>-0.04077313232359557</v>
       </c>
       <c r="G59">
-        <v>0.03523680624003642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01625183369145208</v>
+      </c>
+      <c r="H59">
+        <v>-0.01919805219788765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1637761046330855</v>
+        <v>0.1718528468337306</v>
       </c>
       <c r="C60">
-        <v>0.0726306481533523</v>
+        <v>0.04282446924790713</v>
       </c>
       <c r="D60">
-        <v>0.01208776025251278</v>
+        <v>-0.01782371821673523</v>
       </c>
       <c r="E60">
-        <v>0.03234723248284886</v>
+        <v>0.05533542302500959</v>
       </c>
       <c r="F60">
-        <v>0.1304013233953321</v>
+        <v>0.02989317391845926</v>
       </c>
       <c r="G60">
-        <v>0.3402028051448798</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1280920757612071</v>
+      </c>
+      <c r="H60">
+        <v>-0.3861774566877741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0206426319043684</v>
+        <v>0.02325183777007768</v>
       </c>
       <c r="C61">
-        <v>0.009494412131604084</v>
+        <v>0.007888072597125553</v>
       </c>
       <c r="D61">
-        <v>-0.003789389656958222</v>
+        <v>-0.04152762642456018</v>
       </c>
       <c r="E61">
-        <v>0.02692099512867828</v>
+        <v>-0.002643017691486865</v>
       </c>
       <c r="F61">
-        <v>0.02477108932245169</v>
+        <v>0.02023834411614439</v>
       </c>
       <c r="G61">
-        <v>-0.01426141217180877</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03459529040408171</v>
+      </c>
+      <c r="H61">
+        <v>-0.03771496272185339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01569057328997189</v>
+        <v>0.01368734154439393</v>
       </c>
       <c r="C63">
-        <v>0.01449346734773679</v>
+        <v>-0.001376074952022625</v>
       </c>
       <c r="D63">
-        <v>-0.001240441957014157</v>
+        <v>-0.01148183874787772</v>
       </c>
       <c r="E63">
-        <v>0.04292401789814133</v>
+        <v>-0.002214710882174985</v>
       </c>
       <c r="F63">
-        <v>0.0104354468740318</v>
+        <v>0.01595904726558164</v>
       </c>
       <c r="G63">
-        <v>-0.04318501417381053</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0174472957338191</v>
+      </c>
+      <c r="H63">
+        <v>0.01283637281588265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03761870047039183</v>
+        <v>0.04313128973482663</v>
       </c>
       <c r="C64">
-        <v>-0.009894915119816151</v>
+        <v>0.01278816731003219</v>
       </c>
       <c r="D64">
-        <v>-0.0229293114245121</v>
+        <v>-0.03752296578506986</v>
       </c>
       <c r="E64">
-        <v>0.04000301524602229</v>
+        <v>-0.009359845298759174</v>
       </c>
       <c r="F64">
-        <v>0.02626631812912688</v>
+        <v>0.01301997280815244</v>
       </c>
       <c r="G64">
-        <v>-0.06506490161815508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02161988590067255</v>
+      </c>
+      <c r="H64">
+        <v>-0.02532928591327312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01327393590427795</v>
+        <v>0.02995038335822059</v>
       </c>
       <c r="C65">
-        <v>0.01039491357396943</v>
+        <v>-0.003220619973124679</v>
       </c>
       <c r="D65">
-        <v>0.009123278784793276</v>
+        <v>-0.0589115485677183</v>
       </c>
       <c r="E65">
-        <v>0.01942435652029543</v>
+        <v>-0.007413335936065173</v>
       </c>
       <c r="F65">
-        <v>0.008910040047915797</v>
+        <v>0.03491510496754251</v>
       </c>
       <c r="G65">
-        <v>0.009832127281096247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.007306293087842334</v>
+      </c>
+      <c r="H65">
+        <v>-0.0574723186204353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03850049709400059</v>
+        <v>0.02946066561034211</v>
       </c>
       <c r="C66">
-        <v>0.03265072479012944</v>
+        <v>0.007935524571120445</v>
       </c>
       <c r="D66">
-        <v>-0.01065366316635607</v>
+        <v>-0.08714772727776147</v>
       </c>
       <c r="E66">
-        <v>0.04805203058525302</v>
+        <v>0.007628281189941574</v>
       </c>
       <c r="F66">
-        <v>0.04497855683193352</v>
+        <v>0.04102171928241008</v>
       </c>
       <c r="G66">
-        <v>-0.002521676209489194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.050262594778334</v>
+      </c>
+      <c r="H66">
+        <v>-0.0593463599341606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01787214402944578</v>
+        <v>0.04306330874445518</v>
       </c>
       <c r="C67">
-        <v>-0.01594822536088289</v>
+        <v>0.02160461419356663</v>
       </c>
       <c r="D67">
-        <v>0.0002036632254529268</v>
+        <v>0.005833084234892789</v>
       </c>
       <c r="E67">
-        <v>-0.02288426070725467</v>
+        <v>-0.001926841622787399</v>
       </c>
       <c r="F67">
-        <v>0.02096117271249871</v>
+        <v>0.01335354059783283</v>
       </c>
       <c r="G67">
-        <v>0.01340819214785854</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01986538677132782</v>
+      </c>
+      <c r="H67">
+        <v>-0.03329997755696047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07464171185697209</v>
+        <v>0.14962518100137</v>
       </c>
       <c r="C68">
-        <v>-0.02105679287205253</v>
+        <v>0.02171049182337721</v>
       </c>
       <c r="D68">
-        <v>-0.06768480434541795</v>
+        <v>0.2195903918491334</v>
       </c>
       <c r="E68">
-        <v>-0.1801393029099416</v>
+        <v>0.02969660844980751</v>
       </c>
       <c r="F68">
-        <v>0.07942762636735927</v>
+        <v>-0.06028354263435766</v>
       </c>
       <c r="G68">
-        <v>0.06744133643049256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01201105095935609</v>
+      </c>
+      <c r="H68">
+        <v>0.04040515588321696</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07230156554561069</v>
+        <v>0.06093302551130628</v>
       </c>
       <c r="C69">
-        <v>0.03665336990100963</v>
+        <v>0.03157987793094485</v>
       </c>
       <c r="D69">
-        <v>-0.02227851666248239</v>
+        <v>-0.03384402085419375</v>
       </c>
       <c r="E69">
-        <v>0.01601095862555812</v>
+        <v>0.005275813201269829</v>
       </c>
       <c r="F69">
-        <v>0.01584009532490302</v>
+        <v>0.0278713674700371</v>
       </c>
       <c r="G69">
-        <v>-0.07704695481269327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.002249255511544586</v>
+      </c>
+      <c r="H69">
+        <v>0.008593017349241993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08902818453592394</v>
+        <v>0.1407982078766815</v>
       </c>
       <c r="C71">
-        <v>-0.00275009826696735</v>
+        <v>0.02904340695946909</v>
       </c>
       <c r="D71">
-        <v>-0.05484283732159114</v>
+        <v>0.2018567745415085</v>
       </c>
       <c r="E71">
-        <v>-0.2114885429653909</v>
+        <v>0.02940816301180041</v>
       </c>
       <c r="F71">
-        <v>0.08894039868875343</v>
+        <v>-0.06904148126464214</v>
       </c>
       <c r="G71">
-        <v>0.0328120833231136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.009007925869767303</v>
+      </c>
+      <c r="H71">
+        <v>0.02481108223105983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1073766039217706</v>
+        <v>0.08836047055239202</v>
       </c>
       <c r="C72">
-        <v>0.05190358196584396</v>
+        <v>0.04553853460569916</v>
       </c>
       <c r="D72">
-        <v>-0.07603424330991927</v>
+        <v>-0.07884345675272399</v>
       </c>
       <c r="E72">
-        <v>0.06599868688646029</v>
+        <v>0.007408663705618383</v>
       </c>
       <c r="F72">
-        <v>0.1070261754548524</v>
+        <v>0.08287911664959652</v>
       </c>
       <c r="G72">
-        <v>0.1219054921275563</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1053027217831934</v>
+      </c>
+      <c r="H72">
+        <v>-0.157050649794732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2412437478892914</v>
+        <v>0.2371732839554355</v>
       </c>
       <c r="C73">
-        <v>0.07272365508309439</v>
+        <v>0.05633832480593683</v>
       </c>
       <c r="D73">
-        <v>1.760874019953257e-05</v>
+        <v>-0.0673043284287056</v>
       </c>
       <c r="E73">
-        <v>-0.03428955386084021</v>
+        <v>0.08050269461626436</v>
       </c>
       <c r="F73">
-        <v>0.223007808051021</v>
+        <v>0.02719959743056589</v>
       </c>
       <c r="G73">
-        <v>0.5007408703535083</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1704978937535526</v>
+      </c>
+      <c r="H73">
+        <v>-0.5122095827758205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.128039183794842</v>
+        <v>0.1175583961749462</v>
       </c>
       <c r="C74">
-        <v>0.04655444553622578</v>
+        <v>0.05714293554709066</v>
       </c>
       <c r="D74">
-        <v>-0.03557842794602142</v>
+        <v>-0.09316670592108195</v>
       </c>
       <c r="E74">
-        <v>0.0191293580406033</v>
+        <v>0.004444959100360894</v>
       </c>
       <c r="F74">
-        <v>-0.09553258814589759</v>
+        <v>0.06922331347399262</v>
       </c>
       <c r="G74">
-        <v>0.02274673020857393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07085875771838952</v>
+      </c>
+      <c r="H74">
+        <v>0.01141072275962863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2167008290939128</v>
+        <v>0.2260368322143944</v>
       </c>
       <c r="C75">
-        <v>0.1223385054252483</v>
+        <v>0.1116304595316942</v>
       </c>
       <c r="D75">
-        <v>-0.1147123310408956</v>
+        <v>-0.1464769205025</v>
       </c>
       <c r="E75">
-        <v>0.07343866063134318</v>
+        <v>0.0223258758207976</v>
       </c>
       <c r="F75">
-        <v>-0.1530244689038105</v>
+        <v>0.1533202719226204</v>
       </c>
       <c r="G75">
-        <v>-0.04974560209746529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.144384445948891</v>
+      </c>
+      <c r="H75">
+        <v>0.09061349311970542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.265987444354861</v>
+        <v>0.2025587073176779</v>
       </c>
       <c r="C76">
-        <v>0.07126932977147638</v>
+        <v>0.1045549444313411</v>
       </c>
       <c r="D76">
-        <v>-0.1495265137873603</v>
+        <v>-0.1403490120830707</v>
       </c>
       <c r="E76">
-        <v>0.04548991178655348</v>
+        <v>-0.0198563115695904</v>
       </c>
       <c r="F76">
-        <v>-0.1804445921037101</v>
+        <v>0.1509446185703595</v>
       </c>
       <c r="G76">
-        <v>-0.05158463927739673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1582095312687911</v>
+      </c>
+      <c r="H76">
+        <v>0.0949491704957463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1435403442628005</v>
+        <v>0.07412306832863334</v>
       </c>
       <c r="C77">
-        <v>0.040367371774332</v>
+        <v>0.0130518808404199</v>
       </c>
       <c r="D77">
-        <v>0.07149119755742858</v>
+        <v>-0.07551450456591946</v>
       </c>
       <c r="E77">
-        <v>0.107832345505796</v>
+        <v>0.01265466931871689</v>
       </c>
       <c r="F77">
-        <v>0.2107850720405944</v>
+        <v>-0.02936245566664807</v>
       </c>
       <c r="G77">
-        <v>-0.1427479818933446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1276913468784033</v>
+      </c>
+      <c r="H77">
+        <v>0.07057012774915436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05515558228030391</v>
+        <v>0.03748703428889649</v>
       </c>
       <c r="C78">
-        <v>0.03710578293114602</v>
+        <v>0.01228569836770399</v>
       </c>
       <c r="D78">
-        <v>-0.001438007917430372</v>
+        <v>-0.06308668236109857</v>
       </c>
       <c r="E78">
-        <v>0.1022546236841461</v>
+        <v>-0.001559058514188751</v>
       </c>
       <c r="F78">
-        <v>0.04408650599679582</v>
+        <v>0.03441645536737642</v>
       </c>
       <c r="G78">
-        <v>-0.05039037030156006</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06272008131084729</v>
+      </c>
+      <c r="H78">
+        <v>-0.02860440245897012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2200506893393668</v>
+        <v>0.1631986116943462</v>
       </c>
       <c r="C80">
-        <v>-0.9047209361954595</v>
+        <v>0.05606157476411517</v>
       </c>
       <c r="D80">
-        <v>-0.2336599105829076</v>
+        <v>-0.005126183797350241</v>
       </c>
       <c r="E80">
-        <v>0.2425960106720649</v>
+        <v>-0.963086441230825</v>
       </c>
       <c r="F80">
-        <v>0.01904456186181695</v>
+        <v>-0.1360998937510589</v>
       </c>
       <c r="G80">
-        <v>0.03244501717821035</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08265572043799277</v>
+      </c>
+      <c r="H80">
+        <v>-0.008336877070251854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1551375754554349</v>
+        <v>0.1484723766354056</v>
       </c>
       <c r="C81">
-        <v>0.06429723903095613</v>
+        <v>0.07246444997884824</v>
       </c>
       <c r="D81">
-        <v>-0.1035679557825364</v>
+        <v>-0.09131838565242253</v>
       </c>
       <c r="E81">
-        <v>0.04242407040592157</v>
+        <v>-0.002751712887615018</v>
       </c>
       <c r="F81">
-        <v>-0.1530004120662324</v>
+        <v>0.09941647748102972</v>
       </c>
       <c r="G81">
-        <v>-0.01272081503631629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0969123804646549</v>
+      </c>
+      <c r="H81">
+        <v>0.06828827838190178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05338705940223074</v>
+        <v>0.03679426482348191</v>
       </c>
       <c r="C83">
-        <v>0.03400352861175079</v>
+        <v>0.008564864381283616</v>
       </c>
       <c r="D83">
-        <v>0.02816290268121912</v>
+        <v>-0.02292266240907828</v>
       </c>
       <c r="E83">
-        <v>0.0331722066076738</v>
+        <v>0.01332040220228591</v>
       </c>
       <c r="F83">
-        <v>0.05868654552851639</v>
+        <v>0.005577527540527716</v>
       </c>
       <c r="G83">
-        <v>-0.0479695383301637</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05909939176851624</v>
+      </c>
+      <c r="H83">
+        <v>-0.01861522260827108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2368132894749703</v>
+        <v>0.2135745878091129</v>
       </c>
       <c r="C85">
-        <v>0.09797479420559871</v>
+        <v>0.09353244935840338</v>
       </c>
       <c r="D85">
-        <v>-0.1181783228659894</v>
+        <v>-0.1496635919350034</v>
       </c>
       <c r="E85">
-        <v>0.04745686048961131</v>
+        <v>0.01464283488575207</v>
       </c>
       <c r="F85">
-        <v>-0.1644774176655879</v>
+        <v>0.132927137714683</v>
       </c>
       <c r="G85">
-        <v>-0.07287463152421264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1574447171760988</v>
+      </c>
+      <c r="H85">
+        <v>0.06149216259060522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.000759945014068035</v>
+        <v>0.01680111096189644</v>
       </c>
       <c r="C86">
-        <v>-0.005975926076416467</v>
+        <v>-0.0004155553709198952</v>
       </c>
       <c r="D86">
-        <v>0.01507185343193641</v>
+        <v>-0.006338996564250222</v>
       </c>
       <c r="E86">
-        <v>0.04749648635174907</v>
+        <v>0.01077041794270077</v>
       </c>
       <c r="F86">
-        <v>0.06582344225975849</v>
+        <v>-0.008415759350839934</v>
       </c>
       <c r="G86">
-        <v>-0.01554003171902099</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08779611473808709</v>
+      </c>
+      <c r="H86">
+        <v>-0.03938650296692189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03149305827784935</v>
+        <v>0.02891823493732041</v>
       </c>
       <c r="C87">
-        <v>0.0125342966197928</v>
+        <v>0.004222587195236444</v>
       </c>
       <c r="D87">
-        <v>0.004852150448760922</v>
+        <v>-0.03144223259512333</v>
       </c>
       <c r="E87">
-        <v>0.03093567155503298</v>
+        <v>0.002565980506080546</v>
       </c>
       <c r="F87">
-        <v>0.08647211314260785</v>
+        <v>0.01183099700763517</v>
       </c>
       <c r="G87">
-        <v>0.004369269851056847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09740751508738467</v>
+      </c>
+      <c r="H87">
+        <v>-0.02882984104785392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009972175754192687</v>
+        <v>0.03825909258410693</v>
       </c>
       <c r="C88">
-        <v>-0.01422473915449517</v>
+        <v>-0.009075397759822303</v>
       </c>
       <c r="D88">
-        <v>-0.02434877825821942</v>
+        <v>-4.791738987919914e-05</v>
       </c>
       <c r="E88">
-        <v>-0.002882315527464271</v>
+        <v>-0.009017187301590996</v>
       </c>
       <c r="F88">
-        <v>0.03261550934316557</v>
+        <v>0.01534193222455208</v>
       </c>
       <c r="G88">
-        <v>-0.06528463001538488</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.002885697990920635</v>
+      </c>
+      <c r="H88">
+        <v>-0.009993864059133434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1049436587044751</v>
+        <v>0.2296413551180341</v>
       </c>
       <c r="C89">
-        <v>-0.004303348316567063</v>
+        <v>0.04311255691798271</v>
       </c>
       <c r="D89">
-        <v>-0.06917836288017244</v>
+        <v>0.3473225275478787</v>
       </c>
       <c r="E89">
-        <v>-0.2790693445126994</v>
+        <v>0.06846950751766669</v>
       </c>
       <c r="F89">
-        <v>0.1430890992134377</v>
+        <v>-0.07844839440725555</v>
       </c>
       <c r="G89">
-        <v>-0.007064533748840194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.004491213019862166</v>
+      </c>
+      <c r="H89">
+        <v>0.03494614090300865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0991706522600438</v>
+        <v>0.1848394076560179</v>
       </c>
       <c r="C90">
-        <v>-0.04828148385781043</v>
+        <v>0.0353240706432975</v>
       </c>
       <c r="D90">
-        <v>-0.09452083980277189</v>
+        <v>0.3073409289017178</v>
       </c>
       <c r="E90">
-        <v>-0.3021484468028403</v>
+        <v>0.04383035026472934</v>
       </c>
       <c r="F90">
-        <v>0.1056942640347302</v>
+        <v>-0.08730374099318886</v>
       </c>
       <c r="G90">
-        <v>0.008183529962096169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04634479819719026</v>
+      </c>
+      <c r="H90">
+        <v>0.04836943275873452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.289065010476979</v>
+        <v>0.2345649822645447</v>
       </c>
       <c r="C91">
-        <v>0.1090499936232813</v>
+        <v>0.1138807271989793</v>
       </c>
       <c r="D91">
-        <v>-0.114175908680947</v>
+        <v>-0.1411113495478667</v>
       </c>
       <c r="E91">
-        <v>0.02415134287873542</v>
+        <v>0.01438704813363172</v>
       </c>
       <c r="F91">
-        <v>-0.2429109319937433</v>
+        <v>0.1469459636597682</v>
       </c>
       <c r="G91">
-        <v>-0.03804237876454184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1892511955347242</v>
+      </c>
+      <c r="H91">
+        <v>0.1235249907590381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1729915068131246</v>
+        <v>0.2375343634843066</v>
       </c>
       <c r="C92">
-        <v>-0.05661257763345173</v>
+        <v>0.1021278569155504</v>
       </c>
       <c r="D92">
-        <v>-0.1518963498350882</v>
+        <v>0.2528375394343151</v>
       </c>
       <c r="E92">
-        <v>-0.4681112938668566</v>
+        <v>0.02477622036807563</v>
       </c>
       <c r="F92">
-        <v>0.09321209966623638</v>
+        <v>-0.04881008499213876</v>
       </c>
       <c r="G92">
-        <v>-0.4738145106467734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03991389592600383</v>
+      </c>
+      <c r="H92">
+        <v>0.1413590702501394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.105353890170851</v>
+        <v>0.2092568842596522</v>
       </c>
       <c r="C93">
-        <v>-0.06004520992368118</v>
+        <v>0.04776749751841108</v>
       </c>
       <c r="D93">
-        <v>-0.0922645360543065</v>
+        <v>0.3346150890913757</v>
       </c>
       <c r="E93">
-        <v>-0.4142913909587743</v>
+        <v>0.05700427148418295</v>
       </c>
       <c r="F93">
-        <v>0.07523724789494883</v>
+        <v>-0.1126250659133407</v>
       </c>
       <c r="G93">
-        <v>0.07811542144607582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05803804879335395</v>
+      </c>
+      <c r="H93">
+        <v>-0.01165380096177552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2668853981442844</v>
+        <v>0.254455866003256</v>
       </c>
       <c r="C94">
-        <v>0.1222722153004305</v>
+        <v>0.1035792687836622</v>
       </c>
       <c r="D94">
-        <v>-0.1986371236867337</v>
+        <v>-0.1213580074417587</v>
       </c>
       <c r="E94">
-        <v>0.02986735383985948</v>
+        <v>0.0317174179178118</v>
       </c>
       <c r="F94">
-        <v>-0.2675039254781283</v>
+        <v>0.1885590666604369</v>
       </c>
       <c r="G94">
-        <v>0.04360504569770594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1907928037137826</v>
+      </c>
+      <c r="H94">
+        <v>0.1299337570305037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07997932974773146</v>
+        <v>0.06237566617196986</v>
       </c>
       <c r="C95">
-        <v>0.07515919078738079</v>
+        <v>0.03509053649370689</v>
       </c>
       <c r="D95">
-        <v>0.02680240880524219</v>
+        <v>-0.09199858584573319</v>
       </c>
       <c r="E95">
-        <v>0.09524702165516014</v>
+        <v>0.07360002122119594</v>
       </c>
       <c r="F95">
-        <v>0.02814188516211755</v>
+        <v>0.01133279310040645</v>
       </c>
       <c r="G95">
-        <v>-0.2201050897487485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06345354947057096</v>
+      </c>
+      <c r="H95">
+        <v>-0.006379642067115356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1845097385166246</v>
+        <v>0.1785896401342522</v>
       </c>
       <c r="C98">
-        <v>0.04443520153473118</v>
+        <v>0.07537944049977448</v>
       </c>
       <c r="D98">
-        <v>0.004598840915031712</v>
+        <v>-0.03862170837508234</v>
       </c>
       <c r="E98">
-        <v>-0.05391525033420991</v>
+        <v>0.05236486916330118</v>
       </c>
       <c r="F98">
-        <v>0.09905037281769072</v>
+        <v>0.002224572493990507</v>
       </c>
       <c r="G98">
-        <v>0.3531467772037247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1473039791003004</v>
+      </c>
+      <c r="H98">
+        <v>-0.3722674135982223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004179160101715159</v>
+        <v>0.01522468935816972</v>
       </c>
       <c r="C101">
-        <v>0.01790429647663467</v>
+        <v>0.0002130698440110756</v>
       </c>
       <c r="D101">
-        <v>-0.009304711522846379</v>
+        <v>-0.007771599989749605</v>
       </c>
       <c r="E101">
-        <v>0.1199779850556214</v>
+        <v>-0.004925993162986815</v>
       </c>
       <c r="F101">
-        <v>0.1531333110567272</v>
+        <v>0.02422521235458247</v>
       </c>
       <c r="G101">
-        <v>-0.1167304836826675</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1069588202773325</v>
+      </c>
+      <c r="H101">
+        <v>0.06655778231081422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09796592051907908</v>
+        <v>0.1033817283971083</v>
       </c>
       <c r="C102">
-        <v>0.03759029991928078</v>
+        <v>0.0377181726917847</v>
       </c>
       <c r="D102">
-        <v>-0.04097801122888058</v>
+        <v>-0.07419002111753518</v>
       </c>
       <c r="E102">
-        <v>0.0595026019606872</v>
+        <v>0.0001154025438959418</v>
       </c>
       <c r="F102">
-        <v>-0.1239960779778037</v>
+        <v>0.06760850424775484</v>
       </c>
       <c r="G102">
-        <v>-0.06981004900274142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08862393564968608</v>
+      </c>
+      <c r="H102">
+        <v>0.05347991926859171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02645580267439095</v>
+        <v>0.01993189176933022</v>
       </c>
       <c r="C103">
-        <v>0.01522901162396675</v>
+        <v>0.008504054925044484</v>
       </c>
       <c r="D103">
-        <v>-0.0136506177174629</v>
+        <v>-0.01693491310737452</v>
       </c>
       <c r="E103">
-        <v>0.00661890437250435</v>
+        <v>-0.006435576512883993</v>
       </c>
       <c r="F103">
-        <v>-0.01299001370781424</v>
+        <v>0.01831612733296134</v>
       </c>
       <c r="G103">
-        <v>-0.02034054575083212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.003746284319511786</v>
+      </c>
+      <c r="H103">
+        <v>0.01082273733852629</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3039446940799272</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9357528477892899</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.005485244510979682</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02525843627217257</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1451251813872612</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02661045507792603</v>
+      </c>
+      <c r="H104">
+        <v>0.02877995644266425</v>
       </c>
     </row>
   </sheetData>
